--- a/project/checker.xlsx
+++ b/project/checker.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\DATANVI\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\DATANVI\project\DATANVIFinalProj\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7106EFE-95EA-49FE-8C51-1239A11591BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEA17D-D9D9-4710-8E63-CCD4DFB43B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBB76AA3-0995-4275-A76C-4EC6743105F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CBB76AA3-0995-4275-A76C-4EC6743105F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$1:$C$865</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="206">
   <si>
     <t>Finland</t>
   </si>
@@ -551,6 +555,108 @@
   </si>
   <si>
     <t>is in 2019</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>W. Sahara</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Dem. Rep. Congo</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Falkland Is.</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Fr. S. Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Eq. Guinea</t>
+  </si>
+  <si>
+    <t>eSwatini</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Solomon Is.</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>N. Cyprus</t>
+  </si>
+  <si>
+    <t>Somaliland</t>
+  </si>
+  <si>
+    <t>Bosnia and Herz.</t>
+  </si>
+  <si>
+    <t>S. Sudan</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>whr</t>
   </si>
 </sst>
 </file>
@@ -613,7 +719,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -925,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0C008-5F4F-4862-81F2-9DC703889216}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="b">
-        <f t="shared" ref="J3:J55" si="0">NOT(ISERROR(MATCH(F3,$A$2:$A$1001,0)))</f>
+        <f t="shared" ref="J3:J53" si="0">NOT(ISERROR(MATCH(F3,$A$2:$A$1001,0)))</f>
         <v>1</v>
       </c>
       <c r="K3" t="b">
@@ -5713,7 +5830,7 @@
         <v>87</v>
       </c>
       <c r="J120" t="b">
-        <f t="shared" ref="J120:J159" si="10">NOT(ISERROR(MATCH(F120,$A$2:$A$1001,0)))</f>
+        <f t="shared" ref="J120:J154" si="10">NOT(ISERROR(MATCH(F120,$A$2:$A$1001,0)))</f>
         <v>1</v>
       </c>
       <c r="K120" t="b">
@@ -7164,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F351CC-C415-4253-98D8-2C99C75C7EEF}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13183,4 +13300,1992 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD1DB4-940A-48FF-B89A-C9F070A0931C}">
+  <dimension ref="C1:P178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="b">
+        <f>NOT(ISERROR(MATCH(E2,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="b">
+        <f>NOT(ISERROR(MATCH(E3,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="b">
+        <f>NOT(ISERROR(MATCH(E4,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="b">
+        <f>NOT(ISERROR(MATCH(E5,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="b">
+        <f>NOT(ISERROR(MATCH(E6,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="b">
+        <f>NOT(ISERROR(MATCH(E7,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="b">
+        <f>NOT(ISERROR(MATCH(E8,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="b">
+        <f>NOT(ISERROR(MATCH(E9,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>129</v>
+      </c>
+      <c r="P9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E10,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="b">
+        <f>NOT(ISERROR(MATCH(E11,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="b">
+        <f>NOT(ISERROR(MATCH(E12,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="b">
+        <f>NOT(ISERROR(MATCH(E13,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="b">
+        <f>NOT(ISERROR(MATCH(E14,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="b">
+        <f>NOT(ISERROR(MATCH(E15,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E16,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="b">
+        <f>NOT(ISERROR(MATCH(E17,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="b">
+        <f>NOT(ISERROR(MATCH(E18,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="b">
+        <f>NOT(ISERROR(MATCH(E19,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="b">
+        <f>NOT(ISERROR(MATCH(E20,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="b">
+        <f>NOT(ISERROR(MATCH(E21,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" t="b">
+        <f>NOT(ISERROR(MATCH(E22,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="b">
+        <f>NOT(ISERROR(MATCH(E23,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="b">
+        <f>NOT(ISERROR(MATCH(E24,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="b">
+        <f>NOT(ISERROR(MATCH(E25,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="b">
+        <f>NOT(ISERROR(MATCH(E26,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="b">
+        <f>NOT(ISERROR(MATCH(E27,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="b">
+        <f>NOT(ISERROR(MATCH(E28,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E29,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E30,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="b">
+        <f>NOT(ISERROR(MATCH(E31,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="b">
+        <f>NOT(ISERROR(MATCH(E32,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="b">
+        <f>NOT(ISERROR(MATCH(E33,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E34,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="b">
+        <f>NOT(ISERROR(MATCH(E35,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E36,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="b">
+        <f>NOT(ISERROR(MATCH(E37,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" t="b">
+        <f>NOT(ISERROR(MATCH(E38,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" t="b">
+        <f>NOT(ISERROR(MATCH(E39,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="b">
+        <f>NOT(ISERROR(MATCH(E40,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" t="b">
+        <f>NOT(ISERROR(MATCH(E41,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <f>NOT(ISERROR(MATCH(E42,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="b">
+        <f>NOT(ISERROR(MATCH(E43,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="b">
+        <f>NOT(ISERROR(MATCH(E44,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" t="b">
+        <f>NOT(ISERROR(MATCH(E45,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="b">
+        <f>NOT(ISERROR(MATCH(E46,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="b">
+        <f>NOT(ISERROR(MATCH(E47,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" t="b">
+        <f>NOT(ISERROR(MATCH(E48,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="b">
+        <f>NOT(ISERROR(MATCH(E49,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" t="b">
+        <f>NOT(ISERROR(MATCH(E50,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="b">
+        <f>NOT(ISERROR(MATCH(E51,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" t="b">
+        <f>NOT(ISERROR(MATCH(E52,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E53,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" t="b">
+        <f>NOT(ISERROR(MATCH(E54,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="b">
+        <f>NOT(ISERROR(MATCH(E55,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" t="b">
+        <f>NOT(ISERROR(MATCH(E56,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" t="b">
+        <f>NOT(ISERROR(MATCH(E57,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="b">
+        <f>NOT(ISERROR(MATCH(E58,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" t="b">
+        <f>NOT(ISERROR(MATCH(E59,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="b">
+        <f>NOT(ISERROR(MATCH(E60,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="b">
+        <f>NOT(ISERROR(MATCH(E61,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" t="b">
+        <f>NOT(ISERROR(MATCH(E62,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E63,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" t="b">
+        <f>NOT(ISERROR(MATCH(E64,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" t="b">
+        <f>NOT(ISERROR(MATCH(E65,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" t="b">
+        <f>NOT(ISERROR(MATCH(E66,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" t="b">
+        <f>NOT(ISERROR(MATCH(E67,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" t="b">
+        <f>NOT(ISERROR(MATCH(E68,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" t="b">
+        <f>NOT(ISERROR(MATCH(E69,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" t="b">
+        <f>NOT(ISERROR(MATCH(E70,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" t="b">
+        <f>NOT(ISERROR(MATCH(E71,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" t="b">
+        <f>NOT(ISERROR(MATCH(E72,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" t="b">
+        <f>NOT(ISERROR(MATCH(E73,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" t="b">
+        <f>NOT(ISERROR(MATCH(E74,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="b">
+        <f>NOT(ISERROR(MATCH(E75,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" t="b">
+        <f>NOT(ISERROR(MATCH(E76,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="b">
+        <f>NOT(ISERROR(MATCH(E77,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="b">
+        <f>NOT(ISERROR(MATCH(E78,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" t="b">
+        <f>NOT(ISERROR(MATCH(E79,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" t="b">
+        <f>NOT(ISERROR(MATCH(E80,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="b">
+        <f>NOT(ISERROR(MATCH(E81,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G82" t="b">
+        <f>NOT(ISERROR(MATCH(E82,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E83,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" t="b">
+        <f>NOT(ISERROR(MATCH(E84,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E85,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="b">
+        <f>NOT(ISERROR(MATCH(E86,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" t="b">
+        <f>NOT(ISERROR(MATCH(E87,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" t="b">
+        <f>NOT(ISERROR(MATCH(E88,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" t="b">
+        <f>NOT(ISERROR(MATCH(E89,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G90" t="b">
+        <f>NOT(ISERROR(MATCH(E90,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" t="b">
+        <f>NOT(ISERROR(MATCH(E91,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" t="b">
+        <f>NOT(ISERROR(MATCH(E92,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" t="b">
+        <f>NOT(ISERROR(MATCH(E93,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" t="b">
+        <f>NOT(ISERROR(MATCH(E94,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" t="b">
+        <f>NOT(ISERROR(MATCH(E95,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" t="b">
+        <f>NOT(ISERROR(MATCH(E96,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" t="s">
+        <v>88</v>
+      </c>
+      <c r="G97" t="b">
+        <f>NOT(ISERROR(MATCH(E97,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" t="b">
+        <f>NOT(ISERROR(MATCH(E98,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <f>NOT(ISERROR(MATCH(E99,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" t="b">
+        <f>NOT(ISERROR(MATCH(E100,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" t="s">
+        <v>101</v>
+      </c>
+      <c r="G101" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E101,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" t="b">
+        <f>NOT(ISERROR(MATCH(E102,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" t="b">
+        <f>NOT(ISERROR(MATCH(E103,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" t="b">
+        <f>NOT(ISERROR(MATCH(E104,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" t="b">
+        <f>NOT(ISERROR(MATCH(E105,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>78</v>
+      </c>
+      <c r="E106" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" t="b">
+        <f>NOT(ISERROR(MATCH(E106,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" t="b">
+        <f>NOT(ISERROR(MATCH(E107,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" t="b">
+        <f>NOT(ISERROR(MATCH(E108,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" t="b">
+        <f>NOT(ISERROR(MATCH(E109,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" t="s">
+        <v>148</v>
+      </c>
+      <c r="G110" t="b">
+        <f>NOT(ISERROR(MATCH(E110,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="b">
+        <f>NOT(ISERROR(MATCH(E111,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" t="s">
+        <v>106</v>
+      </c>
+      <c r="G112" t="b">
+        <f>NOT(ISERROR(MATCH(E112,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113" t="b">
+        <f>NOT(ISERROR(MATCH(E113,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" t="s">
+        <v>110</v>
+      </c>
+      <c r="G114" t="b">
+        <f>NOT(ISERROR(MATCH(E114,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E115,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="b">
+        <f>NOT(ISERROR(MATCH(E116,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" t="b">
+        <f>NOT(ISERROR(MATCH(E117,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" t="s">
+        <v>102</v>
+      </c>
+      <c r="G118" t="b">
+        <f>NOT(ISERROR(MATCH(E118,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" t="s">
+        <v>55</v>
+      </c>
+      <c r="G119" t="b">
+        <f>NOT(ISERROR(MATCH(E119,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>151</v>
+      </c>
+      <c r="G120" s="1" t="b">
+        <f>NOT(ISERROR(MATCH(E120,$C$2:$C$1001,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" t="b">
+        <f>NOT(ISERROR(MATCH(E121,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" t="s">
+        <v>113</v>
+      </c>
+      <c r="G122" t="b">
+        <f>NOT(ISERROR(MATCH(E122,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" t="b">
+        <f>NOT(ISERROR(MATCH(E123,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="b">
+        <f>NOT(ISERROR(MATCH(E124,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="b">
+        <f>NOT(ISERROR(MATCH(E125,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>61</v>
+      </c>
+      <c r="E126" t="s">
+        <v>85</v>
+      </c>
+      <c r="G126" t="b">
+        <f>NOT(ISERROR(MATCH(E126,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+      <c r="E127" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" t="b">
+        <f>NOT(ISERROR(MATCH(E127,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128" t="b">
+        <f>NOT(ISERROR(MATCH(E128,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G129" t="b">
+        <f>NOT(ISERROR(MATCH(E129,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>74</v>
+      </c>
+      <c r="E130" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" t="b">
+        <f>NOT(ISERROR(MATCH(E130,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" t="b">
+        <f>NOT(ISERROR(MATCH(E131,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" t="b">
+        <f>NOT(ISERROR(MATCH(E132,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133" t="b">
+        <f>NOT(ISERROR(MATCH(E133,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" t="b">
+        <f>NOT(ISERROR(MATCH(E134,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" t="s">
+        <v>135</v>
+      </c>
+      <c r="G135" t="b">
+        <f>NOT(ISERROR(MATCH(E135,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>203</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" t="b">
+        <f>NOT(ISERROR(MATCH(E136,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="b">
+        <f>NOT(ISERROR(MATCH(E137,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>106</v>
+      </c>
+      <c r="E138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G138" t="b">
+        <f>NOT(ISERROR(MATCH(E138,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>75</v>
+      </c>
+      <c r="E139" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" t="b">
+        <f>NOT(ISERROR(MATCH(E139,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" t="b">
+        <f>NOT(ISERROR(MATCH(E140,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141" t="b">
+        <f>NOT(ISERROR(MATCH(E141,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" t="s">
+        <v>92</v>
+      </c>
+      <c r="G142" t="b">
+        <f>NOT(ISERROR(MATCH(E142,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>195</v>
+      </c>
+      <c r="E143" t="s">
+        <v>149</v>
+      </c>
+      <c r="G143" t="b">
+        <f>NOT(ISERROR(MATCH(E143,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+      <c r="E144" t="s">
+        <v>122</v>
+      </c>
+      <c r="G144" t="b">
+        <f>NOT(ISERROR(MATCH(E144,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G145" t="b">
+        <f>NOT(ISERROR(MATCH(E145,$C$2:$C$1001,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C865">
+    <sortCondition ref="C2:C865"/>
+  </sortState>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>